--- a/+aae550/+hw3/+p3/results.xlsx
+++ b/+aae550/+hw3/+p3/results.xlsx
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +135,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -152,21 +166,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,353 +742,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J25"/>
+  <dimension ref="A4:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>80</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="16">
         <v>6.5624999999999998E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="17">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="17">
         <v>1920</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="17">
         <v>1.016</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>80</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <v>6.5624999999999998E-3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>2400</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="12">
         <v>1.7281</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>80</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="11">
         <v>6.5624999999999998E-3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <v>25</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>2080</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="12">
         <v>0.2475</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>80</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>6.5624999999999998E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>2080</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>1.0001</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>40</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="16">
         <v>1.375E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="17">
         <v>33</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="17">
         <v>1360</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="17">
         <v>9.8911999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="11">
         <v>1.375E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>680</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="12">
         <v>9.8911999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <v>40</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="11">
         <v>1.375E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>77</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>3120</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="12">
         <v>9.8911999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>40</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>1.375E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>101</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>4080</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>9.8911999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D21" s="23">
         <v>160</v>
       </c>
-      <c r="E22" s="3">
-        <v>3.3203124999999999E-3</v>
-      </c>
-      <c r="F22">
+      <c r="E21" s="11">
+        <v>3.2031249999999998E-3</v>
+      </c>
+      <c r="F21" s="24">
         <v>56</v>
       </c>
-      <c r="G22">
+      <c r="G21" s="24">
         <v>9120</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I22">
+      <c r="I21" s="24">
         <v>4.1200000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D22" s="10">
         <v>160</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E22" s="11">
         <v>3.2031249999999998E-3</v>
       </c>
-      <c r="F23">
+      <c r="F22" s="12">
         <v>54</v>
       </c>
-      <c r="G23">
+      <c r="G22" s="12">
         <v>8800</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I23">
+      <c r="I22" s="12">
         <v>0.42030000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" t="s">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D23" s="10">
         <v>160</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E23" s="11">
         <v>3.2031249999999998E-3</v>
       </c>
-      <c r="F24">
+      <c r="F23" s="12">
         <v>79</v>
       </c>
-      <c r="G24">
+      <c r="G23" s="12">
         <v>12800</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I24">
+      <c r="I23" s="12">
         <v>1.1321000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" t="s">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D24" s="7">
         <v>160</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E24" s="8">
         <v>3.2031249999999998E-3</v>
       </c>
-      <c r="F25">
+      <c r="F24" s="9">
         <v>53</v>
       </c>
-      <c r="G25">
+      <c r="G24" s="9">
         <v>8640</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I25">
+      <c r="I24" s="9">
         <v>9.9000000000000008E-3</v>
       </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>